--- a/ExcelItem01/data/Case01.xlsx
+++ b/ExcelItem01/data/Case01.xlsx
@@ -1,137 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PycharmProjects\ExcelItem01\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB92C5C-1164-4E94-8620-99A4B9369B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>请求URL</t>
-  </si>
-  <si>
-    <t>请求类型</t>
-  </si>
-  <si>
-    <t>请求头</t>
-  </si>
-  <si>
-    <t>请求参数类型</t>
-  </si>
-  <si>
-    <t>请求参数</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>是否执行</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>打开百度</t>
-  </si>
-  <si>
-    <t>打开</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/95.0.4638.69 Safari/537.36', 'Accept-Encoding': 'gzip, deflate', 'Accept': '*/*', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b'&lt;!DOCTYPE html&gt;\r\n&lt;!--STATUS OK--&gt;&lt;html&gt; &lt;head&gt;&lt;meta http-equiv=content-type content=text/html;charset=utf-8&gt;&lt;meta http-equiv=X-UA-Compatible content=IE=Edge&gt;&lt;meta content=always name=referrer&gt;&lt;link rel=stylesheet type=text/css href=https://ss1.bdstatic.com/5eN1bjq8AAUYm2zgoY3K/r/www/cache/bdorz/baidu.min.css&gt;&lt;title&gt;\xe7\x99\xbe\xe5\xba\xa6\xe4\xb8\x80\xe4\xb8\x8b\xef\xbc\x8c\xe4\xbd\xa0\xe5\xb0\xb1\xe7\x9f\xa5\xe9\x81\x93&lt;/title&gt;&lt;/head&gt; &lt;body link=#0000cc&gt; &lt;div id=wrapper&gt; &lt;div id=head&gt; &lt;div class=head_wrapper&gt; &lt;div class=s_form&gt; &lt;div class=s_form_wrapper&gt; &lt;div id=lg&gt; &lt;img hidefocus=true src=//www.baidu.com/img/bd_logo1.png width=270 height=129&gt; &lt;/div&gt; &lt;form id=form name=f action=//www.baidu.com/s class=fm&gt; &lt;input type=hidden name=bdorz_come value=1&gt; &lt;input type=hidden name=ie value=utf-8&gt; &lt;input type=hidden name=f value=8&gt; &lt;input type=hidden name=rsv_bp value=1&gt; &lt;input type=hidden name=rsv_idx value=1&gt; &lt;input type=hidden name=tn value=baidu&gt;&lt;span class="bg s_ipt_wr"&gt;&lt;input id=kw name=wd class=s_ipt value maxlength=255 autocomplete=off autofocus=autofocus&gt;&lt;/span&gt;&lt;span class="bg s_btn_wr"&gt;&lt;input type=submit id=su value=\xe7\x99\xbe\xe5\xba\xa6\xe4\xb8\x80\xe4\xb8\x8b class="bg s_btn" autofocus&gt;&lt;/span&gt; &lt;/form&gt; &lt;/div&gt; &lt;/div&gt; &lt;div id=u1&gt; &lt;a href=http://news.baidu.com name=tj_trnews class=mnav&gt;\xe6\x96\xb0\xe9\x97\xbb&lt;/a&gt; &lt;a href=https://www.hao123.com name=tj_trhao123 class=mnav&gt;hao123&lt;/a&gt; &lt;a href=http://map.baidu.com name=tj_trmap class=mnav&gt;\xe5\x9c\xb0\xe5\x9b\xbe&lt;/a&gt; &lt;a href=http://v.baidu.com name=tj_trvideo class=mnav&gt;\xe8\xa7\x86\xe9\xa2\x91&lt;/a&gt; &lt;a href=http://tieba.baidu.com name=tj_trtieba class=mnav&gt;\xe8\xb4\xb4\xe5\x90\xa7&lt;/a&gt; &lt;noscript&gt; &lt;a href=http://www.baidu.com/bdorz/login.gif?login&amp;amp;tpl=mn&amp;amp;u=http%3A%2F%2Fwww.baidu.com%2f%3fbdorz_come%3d1 name=tj_login class=lb&gt;\xe7\x99\xbb\xe5\xbd\x95&lt;/a&gt; &lt;/noscript&gt; &lt;script&gt;document.write(\'&lt;a href="http://www.baidu.com/bdorz/login.gif?login&amp;tpl=mn&amp;u=\'+ encodeURIComponent(window.location.href+ (window.location.search === "" ? "?" : "&amp;")+ "bdorz_come=1")+ \'" name="tj_login" class="lb"&gt;\xe7\x99\xbb\xe5\xbd\x95&lt;/a&gt;\');\r\n                &lt;/script&gt; &lt;a href=//www.baidu.com/more/ name=tj_briicon class=bri style="display: block;"&gt;\xe6\x9b\xb4\xe5\xa4\x9a\xe4\xba\xa7\xe5\x93\x81&lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div id=ftCon&gt; &lt;div id=ftConw&gt; &lt;p id=lh&gt; &lt;a href=http://home.baidu.com&gt;\xe5\x85\xb3\xe4\xba\x8e\xe7\x99\xbe\xe5\xba\xa6&lt;/a&gt; &lt;a href=http://ir.baidu.com&gt;About Baidu&lt;/a&gt; &lt;/p&gt; &lt;p id=cp&gt;&amp;copy;2017&amp;nbsp;Baidu&amp;nbsp;&lt;a href=http://www.baidu.com/duty/&gt;\xe4\xbd\xbf\xe7\x94\xa8\xe7\x99\xbe\xe5\xba\xa6\xe5\x89\x8d\xe5\xbf\x85\xe8\xaf\xbb&lt;/a&gt;&amp;nbsp; &lt;a href=http://jianyi.baidu.com/ class=cp-feedback&gt;\xe6\x84\x8f\xe8\xa7\x81\xe5\x8f\x8d\xe9\xa6\x88&lt;/a&gt;&amp;nbsp;\xe4\xba\xacICP\xe8\xaf\x81030173\xe5\x8f\xb7&amp;nbsp; &lt;img src=//www.baidu.com/img/gs.gif&gt; &lt;/p&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;\r\n' </t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>数据读取完成</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/95.0.4638.69 Safari/537.37', 'Accept-Encoding': 'gzip, deflate', 'Accept': '*/*', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b'&lt;!DOCTYPE html&gt;\r\n&lt;!--STATUS OK--&gt;&lt;html&gt; &lt;head&gt;&lt;meta http-equiv=content-type content=text/html;charset=utf-8&gt;&lt;meta http-equiv=X-UA-Compatible content=IE=Edge&gt;&lt;meta content=always name=referrer&gt;&lt;link rel=stylesheet type=text/css href=https://ss1.bdstatic.com/5eN1bjq8AAUYm2zgoY3K/r/www/cache/bdorz/baidu.min.css&gt;&lt;title&gt;\xe7\x99\xbe\xe5\xba\xa6\xe4\xb8\x80\xe4\xb8\x8b\xef\xbc\x8c\xe4\xbd\xa0\xe5\xb0\xb1\xe7\x9f\xa5\xe9\x81\x93&lt;/title&gt;&lt;/head&gt; &lt;body link=#0000cc&gt; &lt;div id=wrapper&gt; &lt;div id=head&gt; &lt;div class=head_wrapper&gt; &lt;div class=s_form&gt; &lt;div class=s_form_wrapper&gt; &lt;div id=lg&gt; &lt;img hidefocus=true src=//www.baidu.com/img/bd_logo1.png width=270 height=129&gt; &lt;/div&gt; &lt;form id=form name=f action=//www.baidu.com/s class=fm&gt; &lt;input type=hidden name=bdorz_come value=1&gt; &lt;input type=hidden name=ie value=utf-8&gt; &lt;input type=hidden name=f value=8&gt; &lt;input type=hidden name=rsv_bp value=1&gt; &lt;input type=hidden name=rsv_idx value=1&gt; &lt;input type=hidden name=tn value=baidu&gt;&lt;span class="bg s_ipt_wr"&gt;&lt;input id=kw name=wd class=s_ipt value maxlength=255 autocomplete=off autofocus=autofocus&gt;&lt;/span&gt;&lt;span class="bg s_btn_wr"&gt;&lt;input type=submit id=su value=\xe7\x99\xbe\xe5\xba\xa6\xe4\xb8\x80\xe4\xb8\x8b class="bg s_btn" autofocus&gt;&lt;/span&gt; &lt;/form&gt; &lt;/div&gt; &lt;/div&gt; &lt;div id=u1&gt; &lt;a href=http://news.baidu.com name=tj_trnews class=mnav&gt;\xe6\x96\xb0\xe9\x97\xbb&lt;/a&gt; &lt;a href=https://www.hao123.com name=tj_trhao123 class=mnav&gt;hao123&lt;/a&gt; &lt;a href=http://map.baidu.com name=tj_trmap class=mnav&gt;\xe5\x9c\xb0\xe5\x9b\xbe&lt;/a&gt; &lt;a href=http://v.baidu.com name=tj_trvideo class=mnav&gt;\xe8\xa7\x86\xe9\xa2\x91&lt;/a&gt; &lt;a href=http://tieba.baidu.com name=tj_trtieba class=mnav&gt;\xe8\xb4\xb4\xe5\x90\xa7&lt;/a&gt; &lt;noscript&gt; &lt;a href=http://www.baidu.com/bdorz/login.gif?login&amp;amp;tpl=mn&amp;amp;u=http%3A%2F%2Fwww.baidu.com%2f%3fbdorz_come%3d1 name=tj_login class=lb&gt;\xe7\x99\xbb\xe5\xbd\x95&lt;/a&gt; &lt;/noscript&gt; &lt;script&gt;document.write(\'&lt;a href="http://www.baidu.com/bdorz/login.gif?login&amp;tpl=mn&amp;u=\'+ encodeURIComponent(window.location.href+ (window.location.search === "" ? "?" : "&amp;")+ "bdorz_come=1")+ \'" name="tj_login" class="lb"&gt;\xe7\x99\xbb\xe5\xbd\x95&lt;/a&gt;\');\r\n                &lt;/script&gt; &lt;a href=//www.baidu.com/more/ name=tj_briicon class=bri style="display: block;"&gt;\xe6\x9b\xb4\xe5\xa4\x9a\xe4\xba\xa7\xe5\x93\x81&lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div id=ftCon&gt; &lt;div id=ftConw&gt; &lt;p id=lh&gt; &lt;a href=http://home.baidu.com&gt;\xe5\x85\xb3\xe4\xba\x8e\xe7\x99\xbe\xe5\xba\xa6&lt;/a&gt; &lt;a href=http://ir.baidu.com&gt;About Baidu&lt;/a&gt; &lt;/p&gt; &lt;p id=cp&gt;&amp;copy;2017&amp;nbsp;Baidu&amp;nbsp;&lt;a href=http://www.baidu.com/duty/&gt;\xe4\xbd\xbf\xe7\x94\xa8\xe7\x99\xbe\xe5\xba\xa6\xe5\x89\x8d\xe5\xbf\x85\xe8\xaf\xbb&lt;/a&gt;&amp;nbsp; &lt;a href=http://jianyi.baidu.com/ class=cp-feedback&gt;\xe6\x84\x8f\xe8\xa7\x81\xe5\x8f\x8d\xe9\xa6\x88&lt;/a&gt;&amp;nbsp;\xe4\xba\xacICP\xe8\xaf\x81030173\xe5\x8f\xb8&amp;nbsp; &lt;img src=//www.baidu.com/img/gs.gif&gt; &lt;/p&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;\r\n'</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/95.0.4638.69 Safari/537.38', 'Accept-Encoding': 'gzip, deflate', 'Accept': '*/*', 'Connection': 'keep-alive'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b'&lt;!DOCTYPE html&gt;\r\n&lt;!--STATUS OK--&gt;&lt;html&gt; &lt;head&gt;&lt;meta http-equiv=content-type content=text/html;charset=utf-8&gt;&lt;meta http-equiv=X-UA-Compatible content=IE=Edge&gt;&lt;meta content=always name=referrer&gt;&lt;link rel=stylesheet type=text/css href=https://ss1.bdstatic.com/5eN1bjq8AAUYm2zgoY3K/r/www/cache/bdorz/baidu.min.css&gt;&lt;title&gt;\xe7\x99\xbe\xe5\xba\xa6\xe4\xb8\x80\xe4\xb8\x8b\xef\xbc\x8c\xe4\xbd\xa0\xe5\xb0\xb1\xe7\x9f\xa5\xe9\x81\x93&lt;/title&gt;&lt;/head&gt; &lt;body link=#0000cc&gt; &lt;div id=wrapper&gt; &lt;div id=head&gt; &lt;div class=head_wrapper&gt; &lt;div class=s_form&gt; &lt;div class=s_form_wrapper&gt; &lt;div id=lg&gt; &lt;img hidefocus=true src=//www.baidu.com/img/bd_logo1.png width=270 height=129&gt; &lt;/div&gt; &lt;form id=form name=f action=//www.baidu.com/s class=fm&gt; &lt;input type=hidden name=bdorz_come value=1&gt; &lt;input type=hidden name=ie value=utf-8&gt; &lt;input type=hidden name=f value=8&gt; &lt;input type=hidden name=rsv_bp value=1&gt; &lt;input type=hidden name=rsv_idx value=1&gt; &lt;input type=hidden name=tn value=baidu&gt;&lt;span class="bg s_ipt_wr"&gt;&lt;input id=kw name=wd class=s_ipt value maxlength=255 autocomplete=off autofocus=autofocus&gt;&lt;/span&gt;&lt;span class="bg s_btn_wr"&gt;&lt;input type=submit id=su value=\xe7\x99\xbe\xe5\xba\xa6\xe4\xb8\x80\xe4\xb8\x8b class="bg s_btn" autofocus&gt;&lt;/span&gt; &lt;/form&gt; &lt;/div&gt; &lt;/div&gt; &lt;div id=u1&gt; &lt;a href=http://news.baidu.com name=tj_trnews class=mnav&gt;\xe6\x96\xb0\xe9\x97\xbb&lt;/a&gt; &lt;a href=https://www.hao123.com name=tj_trhao123 class=mnav&gt;hao123&lt;/a&gt; &lt;a href=http://map.baidu.com name=tj_trmap class=mnav&gt;\xe5\x9c\xb0\xe5\x9b\xbe&lt;/a&gt; &lt;a href=http://v.baidu.com name=tj_trvideo class=mnav&gt;\xe8\xa7\x86\xe9\xa2\x91&lt;/a&gt; &lt;a href=http://tieba.baidu.com name=tj_trtieba class=mnav&gt;\xe8\xb4\xb4\xe5\x90\xa7&lt;/a&gt; &lt;noscript&gt; &lt;a href=http://www.baidu.com/bdorz/login.gif?login&amp;amp;tpl=mn&amp;amp;u=http%3A%2F%2Fwww.baidu.com%2f%3fbdorz_come%3d1 name=tj_login class=lb&gt;\xe7\x99\xbb\xe5\xbd\x95&lt;/a&gt; &lt;/noscript&gt; &lt;script&gt;document.write(\'&lt;a href="http://www.baidu.com/bdorz/login.gif?login&amp;tpl=mn&amp;u=\'+ encodeURIComponent(window.location.href+ (window.location.search === "" ? "?" : "&amp;")+ "bdorz_come=1")+ \'" name="tj_login" class="lb"&gt;\xe7\x99\xbb\xe5\xbd\x95&lt;/a&gt;\');\r\n                &lt;/script&gt; &lt;a href=//www.baidu.com/more/ name=tj_briicon class=bri style="display: block;"&gt;\xe6\x9b\xb4\xe5\xa4\x9a\xe4\xba\xa7\xe5\x93\x81&lt;/a&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;div id=ftCon&gt; &lt;div id=ftConw&gt; &lt;p id=lh&gt; &lt;a href=http://home.baidu.com&gt;\xe5\x85\xb3\xe4\xba\x8e\xe7\x99\xbe\xe5\xba\xa6&lt;/a&gt; &lt;a href=http://ir.baidu.com&gt;About Baidu&lt;/a&gt; &lt;/p&gt; &lt;p id=cp&gt;&amp;copy;2017&amp;nbsp;Baidu&amp;nbsp;&lt;a href=http://www.baidu.com/duty/&gt;\xe4\xbd\xbf\xe7\x94\xa8\xe7\x99\xbe\xe5\xba\xa6\xe5\x89\x8d\xe5\xbf\x85\xe8\xaf\xbb&lt;/a&gt;&amp;nbsp; &lt;a href=http://jianyi.baidu.com/ class=cp-feedback&gt;\xe6\x84\x8f\xe8\xa7\x81\xe5\x8f\x8d\xe9\xa6\x88&lt;/a&gt;&amp;nbsp;\xe4\xba\xacICP\xe8\xaf\x81030173\xe5\x8f\xb9&amp;nbsp; &lt;img src=//www.baidu.com/img/gs.gif&gt; &lt;/p&gt; &lt;/div&gt; &lt;/div&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;\r\n'</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,23 +62,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,164 +403,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col width="19.25" customWidth="1" min="5" max="5"/>
+    <col width="5.83203125" customWidth="1" min="6" max="6"/>
+    <col width="20.1640625" customWidth="1" min="7" max="7"/>
+    <col width="17.1640625" customWidth="1" min="9" max="9"/>
+    <col width="14.5" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>接口名称</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>请求URL</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>请求类型</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>请求头</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>请求参数类型</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>请求参数</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>打开百度</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/95.0.4638.69 Safari/537.36', 'Accept-Encoding': 'gzip, deflate', 'Accept': '*/*', 'Connection': 'keep-alive'}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>{“mobile”:"1234","pwd":"1111"}</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{"code":200,"msg":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>数据读取完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>打开百度</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/95.0.4638.69 Safari/537.37', 'Accept-Encoding': 'gzip, deflate', 'Accept': '*/*', 'Connection': 'keep-alive'}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{“mobile”:"1234","pwd":"1112"}</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{"code":200,"msg":"操作成功"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>打开百度</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/95.0.4638.69 Safari/537.38', 'Accept-Encoding': 'gzip, deflate', 'Accept': '*/*', 'Connection': 'keep-alive'}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{“mobile”:"1234","pwd":"1113"}</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{"code":200,"msg":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>数据读取完成</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>